--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/D/15/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/D/15/seed4/result_data_RandomForest.xlsx
@@ -564,7 +564,7 @@
         <v>-11.36</v>
       </c>
       <c r="D9" t="n">
-        <v>-7.858499999999996</v>
+        <v>-8.158999999999997</v>
       </c>
     </row>
     <row r="10">
@@ -690,7 +690,7 @@
         <v>-15.14</v>
       </c>
       <c r="D18" t="n">
-        <v>-8.881099999999996</v>
+        <v>-8.924399999999993</v>
       </c>
     </row>
     <row r="19">
@@ -718,7 +718,7 @@
         <v>-14.88</v>
       </c>
       <c r="D20" t="n">
-        <v>-7.286200000000004</v>
+        <v>-7.244200000000002</v>
       </c>
     </row>
     <row r="21">
@@ -816,7 +816,7 @@
         <v>-11.92</v>
       </c>
       <c r="D27" t="n">
-        <v>-7.959899999999999</v>
+        <v>-7.825799999999998</v>
       </c>
     </row>
     <row r="28">
@@ -928,7 +928,7 @@
         <v>-13.02</v>
       </c>
       <c r="D35" t="n">
-        <v>-7.360500000000006</v>
+        <v>-7.328800000000006</v>
       </c>
     </row>
     <row r="36">
@@ -1404,7 +1404,7 @@
         <v>-10.8</v>
       </c>
       <c r="D69" t="n">
-        <v>-7.352599999999995</v>
+        <v>-7.482599999999996</v>
       </c>
     </row>
     <row r="70">
@@ -1502,7 +1502,7 @@
         <v>-15.06</v>
       </c>
       <c r="D76" t="n">
-        <v>-7.838999999999999</v>
+        <v>-7.685899999999997</v>
       </c>
     </row>
     <row r="77">
@@ -1530,7 +1530,7 @@
         <v>-13.33</v>
       </c>
       <c r="D78" t="n">
-        <v>-7.577600000000002</v>
+        <v>-7.557400000000001</v>
       </c>
     </row>
     <row r="79">
@@ -1586,7 +1586,7 @@
         <v>-14.08</v>
       </c>
       <c r="D82" t="n">
-        <v>-8.405400000000006</v>
+        <v>-8.422600000000008</v>
       </c>
     </row>
     <row r="83">
@@ -1600,7 +1600,7 @@
         <v>-13.03</v>
       </c>
       <c r="D83" t="n">
-        <v>-8.876599999999998</v>
+        <v>-8.817399999999999</v>
       </c>
     </row>
     <row r="84">
@@ -1740,7 +1740,7 @@
         <v>-10.09</v>
       </c>
       <c r="D93" t="n">
-        <v>-7.032799999999993</v>
+        <v>-7.008199999999992</v>
       </c>
     </row>
     <row r="94">
